--- a/docs/Mapping_Frontend_Backend.xlsx
+++ b/docs/Mapping_Frontend_Backend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parak\Documents\Parakram\astro_project\astro_aspects\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1589FA99-FADE-4810-9534-716A01B9F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306B280-0881-41A6-8EB9-6CB0135979B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{7B6B54E3-18D2-4A3E-8A3B-B1268B17FAEA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="215">
   <si>
     <t>Page</t>
   </si>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F856F527-2095-420F-8F98-1B5B9DCBA563}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,9 +2158,6 @@
       <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
       <c r="G27" t="s">
         <v>203</v>
       </c>
@@ -2181,9 +2178,6 @@
       <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
       <c r="G28" t="s">
         <v>203</v>
       </c>
@@ -2204,9 +2198,6 @@
       <c r="D29" t="s">
         <v>56</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
       <c r="G29" t="s">
         <v>203</v>
       </c>
@@ -2227,9 +2218,6 @@
       <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
       <c r="G30" t="s">
         <v>203</v>
       </c>
@@ -2249,9 +2237,6 @@
       </c>
       <c r="D31" t="s">
         <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>203</v>

--- a/docs/Mapping_Frontend_Backend.xlsx
+++ b/docs/Mapping_Frontend_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parak\Documents\Parakram\astro_project\astro_aspects\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F07036-445B-42A7-86E1-A0D130EBD5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C656A75-0A3D-4FB2-A0DC-6B6B62A56CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="630" windowWidth="29070" windowHeight="15750" xr2:uid="{7B6B54E3-18D2-4A3E-8A3B-B1268B17FAEA}"/>
+    <workbookView xWindow="28680" yWindow="645" windowWidth="29040" windowHeight="15720" xr2:uid="{7B6B54E3-18D2-4A3E-8A3B-B1268B17FAEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping_Frontend_Backend" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping_Frontend_Backend!$A$1:$J$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="240">
   <si>
     <t>Page</t>
   </si>
@@ -747,6 +746,24 @@
   </si>
   <si>
     <t>natal/characteristics/data.planets["planetName" = "_asc"]["planetSign"]</t>
+  </si>
+  <si>
+    <t>reports/upcoming-events</t>
+  </si>
+  <si>
+    <t>data LIST["date"]</t>
+  </si>
+  <si>
+    <t>data LIST["event"]List["aspect"]</t>
+  </si>
+  <si>
+    <t>data LIST["event"]List["aspectNature"]</t>
+  </si>
+  <si>
+    <t>data LIST["event"]List["description"]</t>
+  </si>
+  <si>
+    <t>Take 2 upcoming event</t>
   </si>
 </sst>
 </file>
@@ -1607,8 +1624,8 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2636,8 +2653,24 @@
       <c r="D38" t="s">
         <v>46</v>
       </c>
+      <c r="E38" t="str">
+        <f>_xlfn.CONCAT(F38,"/",G38)</f>
+        <v>reports/upcoming-events/data LIST["date"]</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
       <c r="H38" t="s">
         <v>64</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2653,8 +2686,24 @@
       <c r="D39" t="s">
         <v>8</v>
       </c>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:E41" si="0">_xlfn.CONCAT(F39,"/",G39)</f>
+        <v>reports/upcoming-events/data LIST["date"]</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
+        <v>235</v>
+      </c>
       <c r="H39" t="s">
         <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2670,8 +2719,24 @@
       <c r="D40" t="s">
         <v>8</v>
       </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>reports/upcoming-events/data LIST["event"]List["aspect"]</v>
+      </c>
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
       <c r="H40" t="s">
         <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2687,6 +2752,22 @@
       <c r="D41" t="s">
         <v>8</v>
       </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>reports/upcoming-events/data LIST["event"]List["description"]</v>
+      </c>
+      <c r="F41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -3930,6 +4011,19 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
+      <c r="E85" t="str">
+        <f t="shared" ref="E85:E89" si="1">_xlfn.CONCAT(F85,"/",G85)</f>
+        <v>reports/upcoming-events/data LIST["date"]</v>
+      </c>
+      <c r="F85" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" t="s">
+        <v>235</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -3944,6 +4038,19 @@
       <c r="D86" t="s">
         <v>46</v>
       </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>reports/upcoming-events/data LIST["date"]</v>
+      </c>
+      <c r="F86" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" t="s">
+        <v>235</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -3958,6 +4065,19 @@
       <c r="D87" t="s">
         <v>8</v>
       </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>reports/upcoming-events/data LIST["event"]List["aspect"]</v>
+      </c>
+      <c r="F87" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" t="s">
+        <v>236</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -3972,6 +4092,19 @@
       <c r="D88" t="s">
         <v>8</v>
       </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>reports/upcoming-events/data LIST["event"]List["aspectNature"]</v>
+      </c>
+      <c r="F88" t="s">
+        <v>234</v>
+      </c>
+      <c r="G88" t="s">
+        <v>237</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -3985,6 +4118,19 @@
       </c>
       <c r="D89" t="s">
         <v>8</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>reports/upcoming-events/data LIST["event"]List["description"]</v>
+      </c>
+      <c r="F89" t="s">
+        <v>234</v>
+      </c>
+      <c r="G89" t="s">
+        <v>238</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
